--- a/pearson_tables/t2m_netherlands-2-4.xlsx
+++ b/pearson_tables/t2m_netherlands-2-4.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7422685624426252</v>
+        <v>0.7180846140156819</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5884941675996848</v>
+        <v>0.6318612555126804</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6023100263129353</v>
+        <v>0.5993536909734288</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7696580594964727</v>
+        <v>0.7570384412011173</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6524461546210057</v>
+        <v>-0.7189261932389713</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6887022052913264</v>
+        <v>-0.6674135141025708</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8778648101859574</v>
+        <v>0.8865791316082355</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5195983184716816</v>
+        <v>0.5217357206468962</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5713820519022128</v>
+        <v>0.5849859299172766</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.794785711918091</v>
+        <v>-0.8002462272016042</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5430790427851593</v>
+        <v>-0.5471126479043555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5811698872514679</v>
+        <v>-0.5887247801971668</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8160092989633184</v>
+        <v>0.8208186911390987</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5573962916378592</v>
+        <v>-0.5761031271683708</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5687421947823024</v>
+        <v>-0.5741786760964228</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7277094389609129</v>
+        <v>0.7876702562287906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6719642438700413</v>
+        <v>-0.7594794030903435</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6004354695826133</v>
+        <v>-0.600815490967664</v>
       </c>
     </row>
     <row r="8">
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6717077814870948</v>
+        <v>0.6777699892607838</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6011698069278208</v>
+        <v>-0.6067459581690833</v>
       </c>
       <c r="D8" t="inlineStr"/>
     </row>
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6633954072999902</v>
+        <v>-0.6676936083905627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6116031169741998</v>
+        <v>-0.6138190161125965</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5418923094764655</v>
+        <v>0.5423844290542225</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-2-4.xlsx
+++ b/pearson_tables/t2m_netherlands-2-4.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7180846140156819</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6318612555126804</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5993536909734288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7570384412011173</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.7189261932389713</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6674135141025708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8865791316082355</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5217357206468962</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5849859299172766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8002462272016042</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5471126479043555</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5887247801971668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8208186911390987</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5761031271683708</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5741786760964228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7876702562287906</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7594794030903435</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.600815490967664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,12 +553,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6777699892607838</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6067459581690833</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -567,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6676936083905627</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6138190161125965</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5423844290542225</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
